--- a/code/data/Dataset.xlsx
+++ b/code/data/Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaser\Desktop\repo\Course-Recommendation-System\code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6179D1AD-1B95-4114-B179-1645B3C83189}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C691111-C17A-4FC5-B7F1-416686F33205}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6705" xr2:uid="{06D8A732-424F-4BB5-96C6-16BD8DA34DF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Course ID</t>
   </si>
@@ -207,85 +207,10 @@
     <t>Web Technology</t>
   </si>
   <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
     <t>Software Design</t>
   </si>
   <si>
-    <t>[4,11]</t>
-  </si>
-  <si>
-    <t>[4]</t>
-  </si>
-  <si>
-    <t>[10,11]</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>[2,7,9]</t>
-  </si>
-  <si>
-    <t>[4,5,7]</t>
-  </si>
-  <si>
-    <t>[1,2,6]</t>
-  </si>
-  <si>
-    <t>[1,2,3,5,6,7]</t>
-  </si>
-  <si>
-    <t>[8,10,11]</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[4,7,8]</t>
-  </si>
-  <si>
-    <t>[4,7]</t>
-  </si>
-  <si>
-    <t>[4,10]</t>
-  </si>
-  <si>
     <t>System Engineering</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>[1,2,3,5]</t>
-  </si>
-  <si>
-    <t>[12,15]</t>
-  </si>
-  <si>
-    <t>[9,19,14]</t>
-  </si>
-  <si>
-    <t>[5,7,9,14,23]</t>
-  </si>
-  <si>
-    <t>[12]</t>
-  </si>
-  <si>
-    <t>[6,9,14,20,25]</t>
-  </si>
-  <si>
-    <t>[2,3,9,7,23]</t>
-  </si>
-  <si>
-    <t>[23,25,14]</t>
-  </si>
-  <si>
-    <t>[15,17,18,1,2]</t>
-  </si>
-  <si>
-    <t>[3,5,23]</t>
   </si>
 </sst>
 </file>
@@ -644,7 +569,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,14 +619,14 @@
       <c r="D2" s="1">
         <v>1.3</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -717,14 +642,14 @@
       <c r="D3" s="1">
         <v>1.7</v>
       </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,14 +665,14 @@
       <c r="D4" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>77</v>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -763,14 +688,14 @@
       <c r="D5" s="1">
         <v>3.3</v>
       </c>
-      <c r="E5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" t="s">
-        <v>78</v>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,14 +711,14 @@
       <c r="D6" s="1">
         <v>2.7</v>
       </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -809,14 +734,14 @@
       <c r="D7" s="1">
         <v>1.7</v>
       </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -832,14 +757,14 @@
       <c r="D8" s="1">
         <v>2.7</v>
       </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>81</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -855,14 +780,14 @@
       <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -878,14 +803,14 @@
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>83</v>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
